--- a/config_11.17/prop_clear_server.xlsx
+++ b/config_11.17/prop_clear_server.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
   <si>
     <t>id|行号</t>
   </si>
@@ -409,7 +409,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -440,9 +440,6 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -479,8 +476,14 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -761,8 +764,8 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I29" sqref="I29"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -771,7 +774,7 @@
     <col min="2" max="2" width="23.375" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
     <col min="4" max="4" width="22.125" customWidth="1"/>
-    <col min="5" max="5" width="27.125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="27.125" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.15">
@@ -807,7 +810,7 @@
       <c r="D2" s="4">
         <v>1591635600</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
         <v>6</v>
       </c>
       <c r="F2" t="s">
@@ -827,7 +830,7 @@
       <c r="D3">
         <v>1589216400</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="15" t="s">
         <v>7</v>
       </c>
     </row>
@@ -844,7 +847,7 @@
       <c r="D4">
         <v>1588611600</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="16" t="s">
         <v>10</v>
       </c>
     </row>
@@ -861,7 +864,7 @@
       <c r="D5">
         <v>1590422400</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="16" t="s">
         <v>12</v>
       </c>
     </row>
@@ -878,7 +881,7 @@
       <c r="D6">
         <v>1598889599</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="17" t="s">
         <v>14</v>
       </c>
     </row>
@@ -895,7 +898,7 @@
       <c r="D7">
         <v>1603123199</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="17" t="s">
         <v>20</v>
       </c>
     </row>
@@ -912,7 +915,7 @@
       <c r="D8">
         <v>1600099199</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="17" t="s">
         <v>19</v>
       </c>
     </row>
@@ -923,11 +926,11 @@
       <c r="B9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="10">
-        <v>1602547200</v>
-      </c>
-      <c r="D9" s="10">
-        <v>1603123199</v>
+      <c r="C9" s="21">
+        <v>1605571200</v>
+      </c>
+      <c r="D9" s="21">
+        <v>1606147199</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>30</v>
@@ -940,11 +943,11 @@
       <c r="B10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="10">
-        <v>1602547200</v>
-      </c>
-      <c r="D10" s="10">
-        <v>1603123199</v>
+      <c r="C10" s="21">
+        <v>1605571200</v>
+      </c>
+      <c r="D10" s="21">
+        <v>1606147199</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>31</v>
@@ -957,11 +960,11 @@
       <c r="B11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="10">
-        <v>1602547200</v>
-      </c>
-      <c r="D11" s="10">
-        <v>1603123199</v>
+      <c r="C11" s="21">
+        <v>1605571200</v>
+      </c>
+      <c r="D11" s="21">
+        <v>1606147199</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>32</v>
@@ -974,11 +977,11 @@
       <c r="B12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="10">
-        <v>1602547200</v>
-      </c>
-      <c r="D12" s="10">
-        <v>1603123199</v>
+      <c r="C12" s="21">
+        <v>1605571200</v>
+      </c>
+      <c r="D12" s="21">
+        <v>1606147199</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>33</v>
@@ -991,11 +994,11 @@
       <c r="B13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="10">
-        <v>1602547200</v>
-      </c>
-      <c r="D13" s="10">
-        <v>1603123199</v>
+      <c r="C13" s="21">
+        <v>1605571200</v>
+      </c>
+      <c r="D13" s="21">
+        <v>1606147199</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>34</v>
@@ -1008,11 +1011,11 @@
       <c r="B14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="10">
-        <v>1602547200</v>
-      </c>
-      <c r="D14" s="10">
-        <v>1603123199</v>
+      <c r="C14" s="21">
+        <v>1605571200</v>
+      </c>
+      <c r="D14" s="21">
+        <v>1606147199</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>35</v>
@@ -1025,11 +1028,11 @@
       <c r="B15" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="10">
-        <v>1602547200</v>
-      </c>
-      <c r="D15" s="10">
-        <v>1603123199</v>
+      <c r="C15" s="21">
+        <v>1605571200</v>
+      </c>
+      <c r="D15" s="21">
+        <v>1606147199</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>36</v>
@@ -1042,11 +1045,11 @@
       <c r="B16" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="10">
-        <v>1602547200</v>
-      </c>
-      <c r="D16" s="10">
-        <v>1603123199</v>
+      <c r="C16" s="21">
+        <v>1605571200</v>
+      </c>
+      <c r="D16" s="21">
+        <v>1606147199</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>37</v>
@@ -1059,304 +1062,187 @@
       <c r="B17" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="10">
-        <v>1602547200</v>
-      </c>
-      <c r="D17" s="10">
-        <v>1603123199</v>
+      <c r="C17" s="21">
+        <v>1605571200</v>
+      </c>
+      <c r="D17" s="21">
+        <v>1606147199</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="11">
+    <row r="18" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="10">
         <v>17</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="10">
         <v>1603152000</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="10">
         <v>1603727999</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="14">
+    <row r="19" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="13">
         <v>18</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="13">
         <v>1603756800</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="14">
         <v>1604332799</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="14">
+    <row r="20" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="13">
         <v>19</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="13">
         <v>1603756800</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="14">
         <v>1604332799</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="14">
+    <row r="21" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="13">
         <v>20</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="13">
         <v>1603756800</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="14">
         <v>1604332799</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="14">
+    <row r="22" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="13">
         <v>21</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="13">
         <v>1603756800</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="14">
         <v>1604332799</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="14">
+    <row r="23" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="13">
         <v>22</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="13">
         <v>1603756800</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="14">
         <v>1604332799</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="14">
+    <row r="24" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="13">
         <v>23</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="13">
         <v>1603756800</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="14">
         <v>1604332799</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="19">
+    <row r="25" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="18">
         <v>24</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="19">
+      <c r="C25" s="18">
         <v>1604966400</v>
       </c>
-      <c r="D25" s="19">
+      <c r="D25" s="18">
         <v>1605542399</v>
       </c>
-      <c r="E25" s="21" t="s">
+      <c r="E25" s="20" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="22">
-        <v>25</v>
-      </c>
-      <c r="B26" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="22">
-        <v>1605571200</v>
-      </c>
-      <c r="D26" s="22">
-        <v>1606147199</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>30</v>
-      </c>
+      <c r="B26" s="23"/>
+      <c r="E26" s="24"/>
     </row>
     <row r="27" spans="1:5" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="22">
-        <v>26</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="22">
-        <v>1605571200</v>
-      </c>
-      <c r="D27" s="22">
-        <v>1606147199</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>31</v>
-      </c>
+      <c r="B27" s="23"/>
+      <c r="E27" s="24"/>
     </row>
     <row r="28" spans="1:5" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="22">
-        <v>27</v>
-      </c>
-      <c r="B28" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="22">
-        <v>1605571200</v>
-      </c>
-      <c r="D28" s="22">
-        <v>1606147199</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="B28" s="23"/>
+      <c r="E28" s="24"/>
     </row>
     <row r="29" spans="1:5" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A29" s="22">
-        <v>28</v>
-      </c>
-      <c r="B29" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="22">
-        <v>1605571200</v>
-      </c>
-      <c r="D29" s="22">
-        <v>1606147199</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>33</v>
-      </c>
+      <c r="B29" s="23"/>
+      <c r="E29" s="24"/>
     </row>
     <row r="30" spans="1:5" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A30" s="22">
-        <v>29</v>
-      </c>
-      <c r="B30" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="22">
-        <v>1605571200</v>
-      </c>
-      <c r="D30" s="22">
-        <v>1606147199</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>34</v>
-      </c>
+      <c r="B30" s="23"/>
+      <c r="E30" s="24"/>
     </row>
     <row r="31" spans="1:5" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A31" s="22">
-        <v>30</v>
-      </c>
-      <c r="B31" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" s="22">
-        <v>1605571200</v>
-      </c>
-      <c r="D31" s="22">
-        <v>1606147199</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>35</v>
-      </c>
+      <c r="B31" s="23"/>
+      <c r="E31" s="24"/>
     </row>
     <row r="32" spans="1:5" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A32" s="22">
-        <v>31</v>
-      </c>
-      <c r="B32" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="22">
-        <v>1605571200</v>
-      </c>
-      <c r="D32" s="22">
-        <v>1606147199</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A33" s="22">
-        <v>32</v>
-      </c>
-      <c r="B33" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" s="22">
-        <v>1605571200</v>
-      </c>
-      <c r="D33" s="22">
-        <v>1606147199</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="22">
-        <v>33</v>
-      </c>
-      <c r="B34" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="22">
-        <v>1605571200</v>
-      </c>
-      <c r="D34" s="22">
-        <v>1606147199</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>38</v>
-      </c>
+      <c r="B32" s="23"/>
+      <c r="E32" s="24"/>
+    </row>
+    <row r="33" spans="2:5" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B33" s="23"/>
+      <c r="E33" s="24"/>
+    </row>
+    <row r="34" spans="2:5" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B34" s="23"/>
+      <c r="E34" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/config_11.17/prop_clear_server.xlsx
+++ b/config_11.17/prop_clear_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.17\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="52">
   <si>
     <t>id|行号</t>
   </si>
@@ -318,7 +318,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -361,6 +361,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -403,7 +409,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -469,6 +475,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -746,11 +758,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1191,6 +1203,159 @@
       </c>
       <c r="E25" s="21" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A26" s="22">
+        <v>25</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="22">
+        <v>1605571200</v>
+      </c>
+      <c r="D26" s="22">
+        <v>1606147199</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A27" s="22">
+        <v>26</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="22">
+        <v>1605571200</v>
+      </c>
+      <c r="D27" s="22">
+        <v>1606147199</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A28" s="22">
+        <v>27</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="22">
+        <v>1605571200</v>
+      </c>
+      <c r="D28" s="22">
+        <v>1606147199</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A29" s="22">
+        <v>28</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="22">
+        <v>1605571200</v>
+      </c>
+      <c r="D29" s="22">
+        <v>1606147199</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A30" s="22">
+        <v>29</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="22">
+        <v>1605571200</v>
+      </c>
+      <c r="D30" s="22">
+        <v>1606147199</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A31" s="22">
+        <v>30</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="22">
+        <v>1605571200</v>
+      </c>
+      <c r="D31" s="22">
+        <v>1606147199</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A32" s="22">
+        <v>31</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="22">
+        <v>1605571200</v>
+      </c>
+      <c r="D32" s="22">
+        <v>1606147199</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A33" s="22">
+        <v>32</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="22">
+        <v>1605571200</v>
+      </c>
+      <c r="D33" s="22">
+        <v>1606147199</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A34" s="22">
+        <v>33</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="22">
+        <v>1605571200</v>
+      </c>
+      <c r="D34" s="22">
+        <v>1606147199</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
